--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8728fa1ff8dcaf82/Documents/HTML/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB30A6E4-CB14-4B84-8F59-E53014D9AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -18,13 +19,13 @@
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">('Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$5&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$5='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
     <definedName name="period_selected">'Project Planner'!$H$2</definedName>
-    <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
-    <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
+    <definedName name="PeriodInActual">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
+    <definedName name="PeriodInPlan">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$4:$5</definedName>
+    <definedName name="TitleRegion..BO60">'Project Planner'!$B$4:$B$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,90 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -230,41 +153,128 @@
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
   <si>
-    <t>Activity 27</t>
-  </si>
-  <si>
-    <t>Activity 28</t>
-  </si>
-  <si>
-    <t>Activity 29</t>
-  </si>
-  <si>
-    <t>Activity 30</t>
-  </si>
-  <si>
-    <t>Activity 31</t>
-  </si>
-  <si>
-    <t>Activity 32</t>
-  </si>
-  <si>
-    <t>Activity 33</t>
-  </si>
-  <si>
-    <t>Activity 34</t>
-  </si>
-  <si>
-    <t>Activity 35</t>
-  </si>
-  <si>
-    <t>Project Title</t>
+    <t>Traffic Penalty Management Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 Period = 1 day</t>
+  </si>
+  <si>
+    <t>1. INITIATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. Assign project manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2. Develop Project Charter </t>
+  </si>
+  <si>
+    <t>1.3. Assign project team</t>
+  </si>
+  <si>
+    <t>1.4. Define project goals</t>
+  </si>
+  <si>
+    <t>2. PLANNING</t>
+  </si>
+  <si>
+    <t>2.1. Define scope statement</t>
+  </si>
+  <si>
+    <t>2.2. Create WBS</t>
+  </si>
+  <si>
+    <t>2.3. Scheduling</t>
+  </si>
+  <si>
+    <t>2.4. Set budget</t>
+  </si>
+  <si>
+    <t>2.5. Risk planning</t>
+  </si>
+  <si>
+    <t>3. ANALYSIS</t>
+  </si>
+  <si>
+    <t>3.1. Develop use cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2. Define requirements </t>
+  </si>
+  <si>
+    <t>3.2.1. User requirements</t>
+  </si>
+  <si>
+    <t>3.2.2. Software requirements</t>
+  </si>
+  <si>
+    <t>4. DEVELOPING</t>
+  </si>
+  <si>
+    <t>4.1. Design</t>
+  </si>
+  <si>
+    <t>4.1.1. Structural design</t>
+  </si>
+  <si>
+    <t>4.1.2. Visual design</t>
+  </si>
+  <si>
+    <t>4.2. Program coding</t>
+  </si>
+  <si>
+    <t>4.3. Program debugging</t>
+  </si>
+  <si>
+    <t>4.4. Implement database</t>
+  </si>
+  <si>
+    <t>4.5. Develop security system</t>
+  </si>
+  <si>
+    <t>5. TESTING</t>
+  </si>
+  <si>
+    <t>5.1. Test configuration</t>
+  </si>
+  <si>
+    <t>5.2. System testing</t>
+  </si>
+  <si>
+    <t>5.3. Review product</t>
+  </si>
+  <si>
+    <t>6. CONTROLLING</t>
+  </si>
+  <si>
+    <t>6.1. Weekly report</t>
+  </si>
+  <si>
+    <t>6.2. Update plans</t>
+  </si>
+  <si>
+    <t>6.3. Resource management</t>
+  </si>
+  <si>
+    <t>7. CLOSING</t>
+  </si>
+  <si>
+    <t>7.1. Lessons learned</t>
+  </si>
+  <si>
+    <t>7.2. Prepare final report</t>
+  </si>
+  <si>
+    <t>7.3. Release product</t>
+  </si>
+  <si>
+    <t>7.4. Close-out meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -300,17 +310,20 @@
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -363,6 +376,19 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -551,7 +577,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,10 +605,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,12 +641,45 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -636,65 +692,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -828,128 +848,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -961,6 +859,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,470 +1091,544 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO39"/>
+  <dimension ref="A1:BO42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="27" width="2.77734375" style="1"/>
     <col min="42" max="42" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:67" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+    </row>
+    <row r="4" spans="1:67" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8</v>
+      </c>
+      <c r="P5" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10</v>
+      </c>
+      <c r="R5" s="3">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3">
+        <v>12</v>
+      </c>
+      <c r="T5" s="3">
+        <v>13</v>
+      </c>
+      <c r="U5" s="3">
+        <v>14</v>
+      </c>
+      <c r="V5" s="3">
+        <v>15</v>
+      </c>
+      <c r="W5" s="3">
+        <v>16</v>
+      </c>
+      <c r="X5" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>32</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>39</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>40</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>41</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>43</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>44</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>45</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>46</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>47</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>48</v>
+      </c>
+      <c r="BD5" s="3">
         <v>49</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="BE5" s="3">
+        <v>50</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>51</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>52</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>53</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>54</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>55</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>56</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>57</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>58</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>59</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10</v>
-      </c>
-      <c r="R4" s="3">
-        <v>11</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="D6" s="7">
         <v>12</v>
       </c>
-      <c r="T4" s="3">
-        <v>13</v>
-      </c>
-      <c r="U4" s="3">
-        <v>14</v>
-      </c>
-      <c r="V4" s="3">
-        <v>15</v>
-      </c>
-      <c r="W4" s="3">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8">
@@ -1661,10 +1637,14 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>15</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8">
@@ -1673,10 +1653,14 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="C18" s="23">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
@@ -1685,10 +1669,14 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
@@ -1697,10 +1685,14 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8">
@@ -1709,10 +1701,14 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="C21" s="7">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
@@ -1721,10 +1717,14 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="C22" s="7">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7">
+        <v>20</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8">
@@ -1733,10 +1733,14 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C23" s="7">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
@@ -1745,10 +1749,14 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
@@ -1757,10 +1765,14 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8">
@@ -1769,10 +1781,14 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C26" s="7">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7">
+        <v>13</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="8">
@@ -1781,10 +1797,14 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="C27" s="7">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8">
@@ -1793,10 +1813,14 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C28" s="7">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8">
@@ -1805,10 +1829,14 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C29" s="7">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8">
@@ -1817,10 +1845,14 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C30" s="7">
+        <v>42</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8">
@@ -1829,10 +1861,14 @@
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="C31" s="7">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8">
@@ -1841,164 +1877,286 @@
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C33" s="7">
+        <v>54</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>60</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+    </row>
+    <row r="35" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>60</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>60</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C37" s="7">
+        <v>50</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C38" s="7">
+        <v>54</v>
+      </c>
+      <c r="D38" s="7">
+        <v>7</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C39" s="7">
+        <v>54</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8">
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7">
+        <v>56</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="7">
+        <v>59</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="7">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+  <mergeCells count="12">
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="A3:AM3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="H5:BO5">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>H$5=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:BO42">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>H$4=period_selected</formula>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>H$5=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B4:B5" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C4:C5" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D4:D5" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E4:E5" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F4:F5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G4:G5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2 A3" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2012,4 +2170,254 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a6504774-b833-430e-a2d9-9f4203eff604" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EFB6606ECB3764CBE21093FD66B06C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="917d7875d8dffe9d31b52455d33ba3f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a6504774-b833-430e-a2d9-9f4203eff604" xmlns:ns4="cf5b9acd-fd57-460d-9b5b-03e44263eed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcfd1904c2b270cc639e85d775886eef" ns3:_="" ns4:_="">
+    <xsd:import namespace="a6504774-b833-430e-a2d9-9f4203eff604"/>
+    <xsd:import namespace="cf5b9acd-fd57-460d-9b5b-03e44263eed1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a6504774-b833-430e-a2d9-9f4203eff604" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf5b9acd-fd57-460d-9b5b-03e44263eed1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46665D1-EF33-40B8-9652-ED1F794BA900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6504774-b833-430e-a2d9-9f4203eff604"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf5b9acd-fd57-460d-9b5b-03e44263eed1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8BAAF-B9B8-454E-B21A-4472DCEB5EDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C44E4C-BB0B-4A1A-9668-F0E17067998B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6504774-b833-430e-a2d9-9f4203eff604"/>
+    <ds:schemaRef ds:uri="cf5b9acd-fd57-460d-9b5b-03e44263eed1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26821"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8728fa1ff8dcaf82/Documents/HTML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/thingocnhu_nguyen_griffithuni_edu_au/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB30A6E4-CB14-4B84-8F59-E53014D9AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE21533-06C7-494B-8585-A4F16135DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$4:$5</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$4:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,10 +53,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
-    <t>PERIODS</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
+    <t>Traffic Penalty Management Software</t>
+  </si>
+  <si>
+    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
+    <t>Plan Duration</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
   </si>
   <si>
     <r>
@@ -126,7 +149,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
+    <t xml:space="preserve">    1 Period = 1 day</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
   </si>
   <si>
     <t>PLAN START</t>
@@ -144,19 +170,7 @@
     <t>PERCENT COMPLETE</t>
   </si>
   <si>
-    <t>Actual Start</t>
-  </si>
-  <si>
-    <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
-  </si>
-  <si>
-    <t>Traffic Penalty Management Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 Period = 1 day</t>
+    <t>PERIODS</t>
   </si>
   <si>
     <t>1. INITIATION</t>
@@ -274,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -322,12 +336,6 @@
       <b/>
       <sz val="13"/>
       <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -524,14 +532,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -540,40 +548,40 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
@@ -587,13 +595,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
@@ -605,7 +613,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -614,13 +622,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -638,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -647,49 +655,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,10 +867,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,26 +1102,26 @@
   </sheetPr>
   <dimension ref="A1:BO42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
-    <col min="42" max="42" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1125,23 +1129,23 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -1149,21 +1153,21 @@
       <c r="O2" s="28"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
       <c r="T2" s="28"/>
       <c r="U2" s="17"/>
       <c r="V2" s="30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
       <c r="Y2" s="32"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31"/>
@@ -1173,7 +1177,7 @@
       <c r="AG2" s="32"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
@@ -1183,73 +1187,73 @@
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" spans="1:67" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
+    <row r="3" spans="1:67" ht="21" customHeight="1" thickTop="1">
+      <c r="A3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="22"/>
       <c r="AP3" s="22"/>
     </row>
-    <row r="4" spans="1:67" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="37" t="s">
+    <row r="4" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="C4" s="34" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="20" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="10"/>
@@ -1271,13 +1275,13 @@
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" ht="15.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1469,13 +1473,17 @@
       <c r="D6" s="7">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="30" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1485,13 +1493,17 @@
       <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1501,13 +1513,17 @@
       <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1517,13 +1533,17 @@
       <c r="D9" s="7">
         <v>7</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" ht="30" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1533,13 +1553,17 @@
       <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" ht="30" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1549,13 +1573,17 @@
       <c r="D11" s="7">
         <v>14</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>14</v>
+      </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1565,13 +1593,17 @@
       <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1581,13 +1613,17 @@
       <c r="D13" s="7">
         <v>4</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1597,13 +1633,17 @@
       <c r="D14" s="7">
         <v>4</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5</v>
+      </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1613,13 +1653,17 @@
       <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
       <c r="G15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1629,13 +1673,17 @@
       <c r="D16" s="7">
         <v>10</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
       <c r="G16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1645,13 +1693,17 @@
       <c r="D17" s="7">
         <v>15</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7">
+        <v>12</v>
+      </c>
       <c r="G17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1661,13 +1713,17 @@
       <c r="D18" s="7">
         <v>10</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7</v>
+      </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1677,13 +1733,17 @@
       <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1693,13 +1753,17 @@
       <c r="D20" s="7">
         <v>3</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="7">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1709,13 +1773,17 @@
       <c r="D21" s="7">
         <v>3</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="7">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
@@ -1731,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="30" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1763,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>36</v>
       </c>
@@ -1795,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="30" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
@@ -1827,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="30" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
@@ -1843,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>40</v>
       </c>
@@ -1859,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="30" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>41</v>
       </c>
@@ -1875,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="30" customHeight="1">
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
@@ -1891,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:67" ht="30" customHeight="1">
       <c r="B33" s="6" t="s">
         <v>43</v>
       </c>
@@ -1907,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:67" ht="30" customHeight="1">
       <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
@@ -1963,7 +2031,7 @@
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
     </row>
-    <row r="35" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:67" ht="30" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
@@ -1979,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:67" ht="30" customHeight="1">
       <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
@@ -1995,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:67" ht="30" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
@@ -2011,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:67" ht="30" customHeight="1">
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
@@ -2027,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:67" ht="30" customHeight="1">
       <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
@@ -2043,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:67" ht="30" customHeight="1">
       <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
@@ -2059,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:67" ht="30" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>51</v>
       </c>
@@ -2075,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:67" ht="30" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>52</v>
       </c>
@@ -2106,7 +2174,7 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO5">
     <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$5=period_selected</formula>
@@ -2173,23 +2241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a6504774-b833-430e-a2d9-9f4203eff604" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EFB6606ECB3764CBE21093FD66B06C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="917d7875d8dffe9d31b52455d33ba3f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a6504774-b833-430e-a2d9-9f4203eff604" xmlns:ns4="cf5b9acd-fd57-460d-9b5b-03e44263eed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcfd1904c2b270cc639e85d775886eef" ns3:_="" ns4:_="">
     <xsd:import namespace="a6504774-b833-430e-a2d9-9f4203eff604"/>
@@ -2372,52 +2423,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a6504774-b833-430e-a2d9-9f4203eff604" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46665D1-EF33-40B8-9652-ED1F794BA900}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a6504774-b833-430e-a2d9-9f4203eff604"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf5b9acd-fd57-460d-9b5b-03e44263eed1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C44E4C-BB0B-4A1A-9668-F0E17067998B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8BAAF-B9B8-454E-B21A-4472DCEB5EDA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46665D1-EF33-40B8-9652-ED1F794BA900}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C44E4C-BB0B-4A1A-9668-F0E17067998B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a6504774-b833-430e-a2d9-9f4203eff604"/>
-    <ds:schemaRef ds:uri="cf5b9acd-fd57-460d-9b5b-03e44263eed1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8BAAF-B9B8-454E-B21A-4472DCEB5EDA}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>
--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/thingocnhu_nguyen_griffithuni_edu_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc Nhu\Python\Software Technologies\2810ICT-7810ICT-2023-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE21533-06C7-494B-8585-A4F16135DFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A0B91-4A54-4F1E-8F80-42FDE624F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -658,46 +658,46 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,24 +1102,24 @@
   </sheetPr>
   <dimension ref="A1:BO42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="58" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
-    <col min="42" max="42" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.77734375" style="1"/>
+    <col min="42" max="42" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1129,14 +1129,14 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1187,69 +1187,69 @@
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" spans="1:67" ht="21" customHeight="1" thickTop="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:67" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="22"/>
       <c r="AP3" s="22"/>
     </row>
-    <row r="4" spans="1:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="1:67" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -1275,13 +1275,13 @@
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:67" ht="15.75" customHeight="1">
+    <row r="5" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="30" customHeight="1">
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="30" customHeight="1">
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="30" customHeight="1">
+    <row r="8" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="30" customHeight="1">
+    <row r="9" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1">
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="30" customHeight="1">
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="30" customHeight="1">
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="30" customHeight="1">
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1">
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1">
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="30" customHeight="1">
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
@@ -1793,13 +1793,17 @@
       <c r="D22" s="7">
         <v>20</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7">
+        <v>23</v>
+      </c>
       <c r="G22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1809,13 +1813,17 @@
       <c r="D23" s="7">
         <v>7</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7">
+        <v>29</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8</v>
+      </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1825,13 +1833,17 @@
       <c r="D24" s="7">
         <v>5</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7">
+        <v>29</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
       <c r="G24" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
@@ -1841,13 +1853,17 @@
       <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7">
+        <v>30</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
       <c r="G25" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>36</v>
       </c>
@@ -1857,13 +1873,17 @@
       <c r="D26" s="7">
         <v>13</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="7">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7">
+        <v>16</v>
+      </c>
       <c r="G26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
@@ -1873,13 +1893,17 @@
       <c r="D27" s="7">
         <v>13</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7">
+        <v>16</v>
+      </c>
       <c r="G27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
@@ -1889,13 +1913,17 @@
       <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7">
+        <v>16</v>
+      </c>
       <c r="G28" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
@@ -1905,13 +1933,17 @@
       <c r="D29" s="7">
         <v>4</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7">
+        <v>36</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5</v>
+      </c>
       <c r="G29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>40</v>
       </c>
@@ -1921,13 +1953,17 @@
       <c r="D30" s="7">
         <v>14</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7">
+        <v>42</v>
+      </c>
+      <c r="F30" s="7">
+        <v>16</v>
+      </c>
       <c r="G30" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>41</v>
       </c>
@@ -1937,13 +1973,17 @@
       <c r="D31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4</v>
+      </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
@@ -1953,13 +1993,17 @@
       <c r="D32" s="7">
         <v>10</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7">
+        <v>13</v>
+      </c>
       <c r="G32" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:67" ht="30" customHeight="1">
+    <row r="33" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>43</v>
       </c>
@@ -1969,13 +2013,17 @@
       <c r="D33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
       <c r="G33" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:67" ht="30" customHeight="1">
+    <row r="34" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
@@ -1985,8 +2033,12 @@
       <c r="D34" s="7">
         <v>60</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>60</v>
+      </c>
       <c r="G34" s="8">
         <v>0</v>
       </c>
@@ -2031,7 +2083,7 @@
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
     </row>
-    <row r="35" spans="2:67" ht="30" customHeight="1">
+    <row r="35" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
@@ -2041,13 +2093,17 @@
       <c r="D35" s="7">
         <v>60</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>60</v>
+      </c>
       <c r="G35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:67" ht="30" customHeight="1">
+    <row r="36" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
@@ -2057,13 +2113,17 @@
       <c r="D36" s="7">
         <v>60</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>60</v>
+      </c>
       <c r="G36" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:67" ht="30" customHeight="1">
+    <row r="37" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
@@ -2073,13 +2133,17 @@
       <c r="D37" s="7">
         <v>7</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="7">
+        <v>52</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5</v>
+      </c>
       <c r="G37" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:67" ht="30" customHeight="1">
+    <row r="38" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
@@ -2089,13 +2153,17 @@
       <c r="D38" s="7">
         <v>7</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="7">
+        <v>57</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3</v>
+      </c>
       <c r="G38" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:67" ht="30" customHeight="1">
+    <row r="39" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
@@ -2105,13 +2173,17 @@
       <c r="D39" s="7">
         <v>2</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="7">
+        <v>57</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
       <c r="G39" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:67" ht="30" customHeight="1">
+    <row r="40" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
@@ -2121,13 +2193,17 @@
       <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="7">
+        <v>58</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
       <c r="G40" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:67" ht="30" customHeight="1">
+    <row r="41" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
         <v>51</v>
       </c>
@@ -2137,13 +2213,17 @@
       <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="7">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
       <c r="G41" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:67" ht="30" customHeight="1">
+    <row r="42" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
         <v>52</v>
       </c>
@@ -2153,8 +2233,12 @@
       <c r="D42" s="7">
         <v>1</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="7">
+        <v>60</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
       <c r="G42" s="8">
         <v>0</v>
       </c>
@@ -2241,6 +2325,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a6504774-b833-430e-a2d9-9f4203eff604" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008EFB6606ECB3764CBE21093FD66B06C4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="917d7875d8dffe9d31b52455d33ba3f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a6504774-b833-430e-a2d9-9f4203eff604" xmlns:ns4="cf5b9acd-fd57-460d-9b5b-03e44263eed1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcfd1904c2b270cc639e85d775886eef" ns3:_="" ns4:_="">
     <xsd:import namespace="a6504774-b833-430e-a2d9-9f4203eff604"/>
@@ -2423,14 +2515,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a6504774-b833-430e-a2d9-9f4203eff604" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2441,15 +2525,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C44E4C-BB0B-4A1A-9668-F0E17067998B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46665D1-EF33-40B8-9652-ED1F794BA900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a6504774-b833-430e-a2d9-9f4203eff604"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46665D1-EF33-40B8-9652-ED1F794BA900}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38C44E4C-BB0B-4A1A-9668-F0E17067998B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6504774-b833-430e-a2d9-9f4203eff604"/>
+    <ds:schemaRef ds:uri="cf5b9acd-fd57-460d-9b5b-03e44263eed1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8BAAF-B9B8-454E-B21A-4472DCEB5EDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA8BAAF-B9B8-454E-B21A-4472DCEB5EDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
